--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1648,10 +1648,10 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1786,10 +1786,10 @@
         <v>11</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -1803,16 +1803,16 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -1832,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -1878,10 +1878,10 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1918,16 +1918,16 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1941,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1964,10 +1964,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2010,16 +2010,16 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="71">
       <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
         <v>4</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2050,16 +2050,16 @@
     </row>
     <row r="72">
       <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
         <v>4</v>
       </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2108,10 +2108,10 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2292,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2407,10 +2407,10 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2430,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2476,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2591,10 +2591,10 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2752,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2775,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2867,10 +2867,10 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3005,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3051,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>1</v>

--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1803,10 +1803,10 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1855,10 +1855,10 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -1878,10 +1878,10 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1924,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2010,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2062,10 +2062,10 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2073,22 +2073,22 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2200,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2384,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2430,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2499,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2568,10 +2568,10 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -2614,10 +2614,10 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -2637,10 +2637,10 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -2775,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2821,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2913,10 +2913,10 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3005,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3120,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3166,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3189,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3235,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3442,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3465,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3488,10 +3488,10 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3511,10 +3511,10 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3534,10 +3534,10 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -3557,10 +3557,10 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -3580,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3603,10 +3603,10 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3626,10 +3626,10 @@
         <v>8</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3752,16 +3752,16 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -3775,22 +3775,22 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -3798,16 +3798,16 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -3821,16 +3821,16 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -3844,22 +3844,22 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -3867,10 +3867,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3936,10 +3936,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3948,10 +3948,10 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -3982,16 +3982,16 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -4040,10 +4040,10 @@
         <v>11</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4057,16 +4057,16 @@
         <v>7</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4086,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4109,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4132,10 +4132,10 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4178,10 +4178,10 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4270,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -4408,10 +4408,10 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4454,10 +4454,10 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -4477,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -4523,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -4540,16 +4540,16 @@
         <v>7</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -4563,16 +4563,16 @@
         <v>7</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -4586,16 +4586,16 @@
         <v>7</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -4609,16 +4609,16 @@
         <v>7</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -4632,16 +4632,16 @@
         <v>7</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -4655,10 +4655,10 @@
         <v>7</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4684,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4730,10 +4730,10 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4776,10 +4776,10 @@
         <v>8</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4810,22 +4810,22 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -4833,16 +4833,16 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4856,22 +4856,22 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -4879,22 +4879,22 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -4937,10 +4937,10 @@
         <v>8</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -4954,10 +4954,10 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -4977,16 +4977,16 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -5000,10 +5000,10 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5075,10 +5075,10 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5098,10 +5098,10 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -5109,22 +5109,22 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5144,10 +5144,10 @@
         <v>8</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5190,10 +5190,10 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -5201,24 +5201,737 @@
     </row>
     <row r="209">
       <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>3</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
         <v>5</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B234" t="s">
         <v>17</v>
       </c>
-      <c r="C209">
-        <v>2</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>17</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
         <v>11</v>
       </c>
-      <c r="E209">
-        <v>2</v>
-      </c>
-      <c r="F209" t="s">
-        <v>9</v>
-      </c>
-      <c r="G209">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240">
         <v>1</v>
       </c>
     </row>

--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1648,10 +1648,10 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1734,10 +1734,10 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1757,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1780,16 +1780,16 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -1832,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -1855,10 +1855,10 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -1878,10 +1878,10 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1924,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1970,10 +1970,10 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2016,10 +2016,10 @@
         <v>14</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2039,10 +2039,10 @@
         <v>14</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2073,22 +2073,22 @@
     </row>
     <row r="73">
       <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2096,22 +2096,22 @@
     </row>
     <row r="74">
       <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2119,22 +2119,22 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2148,10 +2148,10 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2292,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2338,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2430,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2499,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2568,10 +2568,10 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -2591,10 +2591,10 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -2752,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -2775,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2913,10 +2913,10 @@
         <v>8</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -2959,10 +2959,10 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3051,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3120,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3235,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3258,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3327,10 +3327,10 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3350,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3396,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3442,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3465,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3534,10 +3534,10 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3557,10 +3557,10 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3580,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3603,10 +3603,10 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3649,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3764,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3787,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3833,10 +3833,10 @@
         <v>8</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4005,22 +4005,22 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -4028,16 +4028,16 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4051,16 +4051,16 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4132,10 +4132,10 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4201,10 +4201,10 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -4224,10 +4224,10 @@
         <v>8</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -4333,16 +4333,16 @@
         <v>7</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -4356,10 +4356,10 @@
         <v>7</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4379,10 +4379,10 @@
         <v>7</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4402,16 +4402,16 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4454,10 +4454,10 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4500,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4523,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4546,10 +4546,10 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4592,10 +4592,10 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4615,10 +4615,10 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4661,10 +4661,10 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4707,10 +4707,10 @@
         <v>8</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -4764,22 +4764,22 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -4787,16 +4787,16 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -4816,16 +4816,16 @@
         <v>7</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -4839,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4862,16 +4862,16 @@
         <v>7</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -4885,16 +4885,16 @@
         <v>7</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G200">
         <v>1</v>

--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -54,16 +54,16 @@
     <t>Oporto</t>
   </si>
   <si>
-    <t>Jerez</t>
+    <t>Doble Magnum</t>
+  </si>
+  <si>
+    <t>Blanco</t>
   </si>
   <si>
     <t>Imperial</t>
   </si>
   <si>
-    <t>Doble Magnum</t>
-  </si>
-  <si>
-    <t>Blanco</t>
+    <t>Jerez</t>
   </si>
   <si>
     <t>Rosado</t>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -630,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -670,22 +670,22 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -693,22 +693,22 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -854,16 +854,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -877,16 +877,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -900,16 +900,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -923,22 +923,22 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -981,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1073,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1096,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1280,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1326,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1412,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1435,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1458,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1481,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1504,16 +1504,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1527,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1550,16 +1550,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1619,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1642,16 +1642,16 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1688,10 +1688,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1711,16 +1711,16 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -1803,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -1820,22 +1820,22 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -1843,16 +1843,16 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1866,22 +1866,22 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1941,16 +1941,16 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -1964,16 +1964,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1987,16 +1987,16 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2010,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2033,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2056,10 +2056,10 @@
         <v>7</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2079,10 +2079,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2102,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2125,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2148,10 +2148,10 @@
         <v>7</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2292,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2430,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2637,10 +2637,10 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -2660,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2752,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2867,10 +2867,10 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2936,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4382,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -5503,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5595,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5641,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C233">
         <v>2</v>

--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -51,7 +51,7 @@
     <t>Magnum</t>
   </si>
   <si>
-    <t>Oporto</t>
+    <t>Jerez</t>
   </si>
   <si>
     <t>Doble Magnum</t>
@@ -60,10 +60,10 @@
     <t>Blanco</t>
   </si>
   <si>
-    <t>Imperial</t>
+    <t>Oporto</t>
   </si>
   <si>
-    <t>Jerez</t>
+    <t>Imperial</t>
   </si>
   <si>
     <t>Rosado</t>
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -630,16 +630,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -670,22 +670,22 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -693,22 +693,22 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -762,16 +762,16 @@
     </row>
     <row r="16">
       <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -785,22 +785,22 @@
     </row>
     <row r="17">
       <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="18">
       <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -831,22 +831,22 @@
     </row>
     <row r="19">
       <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -889,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -958,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1073,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1096,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1188,10 +1188,10 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1280,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1372,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1412,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1458,16 +1458,16 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1504,16 +1504,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1527,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1550,10 +1550,10 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1619,16 +1619,16 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1642,16 +1642,16 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1665,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1688,16 +1688,16 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1734,10 +1734,10 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1757,16 +1757,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -1780,10 +1780,10 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1803,16 +1803,16 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -1820,16 +1820,16 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1843,16 +1843,16 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1889,22 +1889,22 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1941,16 +1941,16 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -1964,16 +1964,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2016,10 +2016,10 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2200,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2292,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2338,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2384,10 +2384,10 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2407,10 +2407,10 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2499,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2591,10 +2591,10 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2637,10 +2637,10 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>8</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -2706,10 +2706,10 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2821,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2858,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2867,10 +2867,10 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2959,10 +2959,10 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3005,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3166,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3327,10 +3327,10 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3350,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3442,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3465,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3580,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3649,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3741,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3764,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3810,10 +3810,10 @@
         <v>8</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -3994,10 +3994,10 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -4155,10 +4155,10 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -4178,10 +4178,10 @@
         <v>8</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -4201,10 +4201,10 @@
         <v>8</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4241,10 +4241,10 @@
         <v>7</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4264,16 +4264,16 @@
         <v>7</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -4287,16 +4287,16 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -4310,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4356,10 +4356,10 @@
         <v>7</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4379,10 +4379,10 @@
         <v>7</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4402,16 +4402,16 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -4523,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -4592,10 +4592,10 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -4615,10 +4615,10 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -4701,10 +4701,10 @@
         <v>14</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -4724,10 +4724,10 @@
         <v>14</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -4822,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -4914,10 +4914,10 @@
         <v>8</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5075,10 +5075,10 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5098,10 +5098,10 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5190,10 +5190,10 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -5201,10 +5201,10 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -5213,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5293,22 +5293,22 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -5316,22 +5316,22 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -5397,10 +5397,10 @@
         <v>11</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -5420,10 +5420,10 @@
         <v>11</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -5443,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -5480,19 +5480,19 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5512,10 +5512,10 @@
         <v>8</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5535,10 +5535,10 @@
         <v>8</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5558,10 +5558,10 @@
         <v>8</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5581,10 +5581,10 @@
         <v>8</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5615,10 +5615,10 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5627,10 +5627,10 @@
         <v>8</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5650,10 +5650,10 @@
         <v>8</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5707,22 +5707,22 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -5730,16 +5730,16 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -5765,10 +5765,10 @@
         <v>11</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -5799,22 +5799,22 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -5822,16 +5822,16 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -5845,16 +5845,16 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -5868,16 +5868,16 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -5891,10 +5891,10 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -5903,10 +5903,10 @@
         <v>11</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -5914,24 +5914,300 @@
     </row>
     <row r="240">
       <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
         <v>5</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B246" t="s">
         <v>17</v>
       </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
         <v>11</v>
       </c>
-      <c r="E240">
-        <v>2</v>
-      </c>
-      <c r="F240" t="s">
-        <v>9</v>
-      </c>
-      <c r="G240">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252">
         <v>1</v>
       </c>
     </row>

--- a/reporte2_P21.xlsx
+++ b/reporte2_P21.xlsx
@@ -51,19 +51,19 @@
     <t>Magnum</t>
   </si>
   <si>
+    <t>Oporto</t>
+  </si>
+  <si>
     <t>Jerez</t>
+  </si>
+  <si>
+    <t>Imperial</t>
   </si>
   <si>
     <t>Doble Magnum</t>
   </si>
   <si>
     <t>Blanco</t>
-  </si>
-  <si>
-    <t>Oporto</t>
-  </si>
-  <si>
-    <t>Imperial</t>
   </si>
   <si>
     <t>Rosado</t>
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -636,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -751,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -762,16 +762,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -785,22 +785,22 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -814,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -837,16 +837,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -854,16 +854,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -877,22 +877,22 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -900,16 +900,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -923,22 +923,22 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -946,16 +946,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -981,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1188,10 +1188,10 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1326,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1372,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1464,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1573,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1602,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1694,10 +1694,10 @@
         <v>11</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         <v>11</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -1803,10 +1803,10 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1829,13 +1829,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1898,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -1918,16 +1918,16 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1941,16 +1941,16 @@
         <v>7</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -1967,13 +1967,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="69">
       <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
         <v>4</v>
       </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2004,22 +2004,22 @@
     </row>
     <row r="70">
       <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2476,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2499,10 +2499,10 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2591,10 +2591,10 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2614,10 +2614,10 @@
         <v>8</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2706,10 +2706,10 @@
         <v>8</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>8</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2775,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2936,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>8</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3051,10 +3051,10 @@
         <v>8</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3189,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3235,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3258,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3327,10 +3327,10 @@
         <v>8</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -3350,10 +3350,10 @@
         <v>8</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3396,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3442,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3465,10 +3465,10 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3488,10 +3488,10 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3505,16 +3505,16 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -3528,10 +3528,10 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -3551,10 +3551,10 @@
         <v>7</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3574,10 +3574,10 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -3597,10 +3597,10 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -3614,16 +3614,16 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3672,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         <v>8</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3741,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3787,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -3798,10 +3798,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3856,10 +3856,10 @@
         <v>8</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -3879,10 +3879,10 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -3948,10 +3948,10 @@
         <v>8</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -4017,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -4040,10 +4040,10 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4132,10 +4132,10 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -4155,10 +4155,10 @@
         <v>8</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -4195,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -4218,10 +4218,10 @@
         <v>7</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -4310,10 +4310,10 @@
         <v>7</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -4333,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4356,16 +4356,16 @@
         <v>7</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -4379,16 +4379,16 @@
         <v>7</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -4402,10 +4402,10 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4431,10 +4431,10 @@
         <v>8</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4454,10 +4454,10 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4477,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4500,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4523,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4661,10 +4661,10 @@
         <v>8</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4684,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -4695,22 +4695,22 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -4718,22 +4718,22 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -4764,16 +4764,16 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -4787,22 +4787,22 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4833,16 +4833,16 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4856,22 +4856,22 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -4879,22 +4879,22 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -4902,22 +4902,22 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>8</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         <v>8</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>8</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -5017,16 +5017,16 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5040,16 +5040,16 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5086,10 +5086,10 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5098,10 +5098,10 @@
         <v>8</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -5109,16 +5109,16 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -5480,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>3</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5549,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5595,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5641,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5710,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -5756,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C234">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -5848,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C237">
         <v>2</v>
@@ -5871,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -5917,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -5986,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -6032,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C245">
         <v>2</v>
